--- a/biology/Botanique/Chloranthaceae/Chloranthaceae.xlsx
+++ b/biology/Botanique/Chloranthaceae/Chloranthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chloranthacées sont une famille de plantes angiospermes de divergence ancienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Chloranthus lui même issu du grec ancien χλωρός / chlôros, « vert pâle, jaune pâle » et ἄνθος / anthos, fleur.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbres, des arbustes, des plantes herbacées annuelles ou pérennes, des régions subtropicales à tropicales d'Amérique du Sud, d'Asie du Sud-Est et de Malaisie.
 </t>
@@ -573,10 +589,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique la place parmi les familles de divergence ancienne présentant des caractères d'angiospermes primitives.
-Le Angiosperm Phylogeny Website [23 janvier 2009] place cette famille dans l'ordre Chloranthales, choix qui a été confirmée par la classification phylogénétique APG III (2009)[1].
+Le Angiosperm Phylogeny Website [23 janvier 2009] place cette famille dans l'ordre Chloranthales, choix qui a été confirmée par la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -605,20 +623,22 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (28 mars 2010)[2] et NCBI  (28 mars 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (28 mars 2010) et NCBI  (28 mars 2010) :
 genre Ascarina (en) J.R.Forst. &amp; G.Forst.
 genre Chloranthus (en) Sw.
 genre Hedyosmum (en) Sw.
 genre Sarcandra (en) Gardner
-Selon DELTA Angio           (28 mars 2010)[4] :
+Selon DELTA Angio           (28 mars 2010) :
 genre Ascarina
 genre Ascarinopsis
 genre Chloranthus
 genre Hedyosmum
 genre Sarcandra
-Selon ITIS      (28 mars 2010)[5] :
+Selon ITIS      (28 mars 2010) :
 genre Ascarina J.R. &amp; G. Forst.
 genre Hedyosmum Sw.</t>
         </is>
